--- a/comment3_xy.xlsx
+++ b/comment3_xy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:G499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>新規性_IDF</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>関連性_norm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新規性_norm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>両立スコア</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +484,15 @@
       </c>
       <c r="D2" t="n">
         <v>14.7334025712054</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04621044826590082</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04621044826590082</v>
       </c>
     </row>
     <row r="3">
@@ -487,6 +511,15 @@
       <c r="D3" t="n">
         <v>35.47248076716804</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.150731569176552</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1112573439456539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2619889131222059</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -503,6 +536,15 @@
       <c r="D4" t="n">
         <v>42.16572012801363</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.4690915956074385</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1322502944688501</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6013418900762886</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -519,6 +561,15 @@
       <c r="D5" t="n">
         <v>69.42285363634549</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.4134482867121866</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2177406862351881</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6311889729473747</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -535,6 +586,15 @@
       <c r="D6" t="n">
         <v>6.841967538444134</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.355621283156603</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0214594276810274</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3770807108376304</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +610,15 @@
       </c>
       <c r="D7" t="n">
         <v>17.4806734854609</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01059123375601775</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05482710146885687</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06541833522487461</v>
       </c>
     </row>
     <row r="8">
@@ -570,6 +639,15 @@
       <c r="D8" t="n">
         <v>13.57025176139972</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04256229434746971</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04256229434746971</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -587,6 +665,15 @@
       <c r="D9" t="n">
         <v>36.24084361465321</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1136672687027868</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4107630177352276</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -604,6 +691,15 @@
       <c r="D10" t="n">
         <v>22.74870594451358</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.5761303923728015</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07134997459579563</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6474803669685971</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -621,6 +717,15 @@
       <c r="D11" t="n">
         <v>13.63095150623013</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04275267551737821</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04275267551737821</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -637,6 +742,15 @@
       <c r="D12" t="n">
         <v>55.64840924333366</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.4321449922909915</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1745379537408757</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6066829460318672</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +767,15 @@
       <c r="D13" t="n">
         <v>13.45889961607363</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.042213044910619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.09293517448489294</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +793,15 @@
       <c r="D14" t="n">
         <v>61.30221685233866</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.3781504672603128</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1922707878746482</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.570421255134961</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +819,15 @@
       <c r="D15" t="n">
         <v>84.39580886615063</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.4024102451150058</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2647024772872296</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6671127224022355</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -702,6 +843,15 @@
       </c>
       <c r="D16" t="n">
         <v>7.247432646552298</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6385513357037224</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0227311450804066</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.661282480784129</v>
       </c>
     </row>
     <row r="17">
@@ -729,6 +879,15 @@
       <c r="D17" t="n">
         <v>173.0327461479045</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.1468361599697932</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5427070037305246</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6895431637003178</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -746,6 +905,15 @@
       <c r="D18" t="n">
         <v>10.27281361402842</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.0367829835436267</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03222007406381918</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.06900305760744588</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -762,6 +930,15 @@
       <c r="D19" t="n">
         <v>35.58514870215765</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.04905446650514459</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1116107202791859</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1606651867843305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -778,6 +955,15 @@
       <c r="D20" t="n">
         <v>6.841967538444134</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0214594276810274</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3185551767134682</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -795,6 +981,15 @@
       <c r="D21" t="n">
         <v>30.4631385819585</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.0836978068657374</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09554583760643076</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1792436444721682</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -811,6 +1006,15 @@
       <c r="D22" t="n">
         <v>13.50286273949475</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.04235093265451527</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3394466816869561</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -827,6 +1031,15 @@
       <c r="D23" t="n">
         <v>26.54951429516338</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08327098583589893</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1417965199600612</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -843,6 +1056,15 @@
       <c r="D24" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -860,6 +1082,15 @@
       <c r="D25" t="n">
         <v>45.04722008229996</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.05517762184953275</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1412879491397392</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1964655709892719</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -877,6 +1108,15 @@
       <c r="D26" t="n">
         <v>12.18110689951243</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.3110286019949026</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03820532341262661</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3492339254075292</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -894,6 +1134,15 @@
       <c r="D27" t="n">
         <v>13.09117483594831</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.2416789905918631</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0410596978242317</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2827386884160948</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -910,6 +1159,15 @@
       <c r="D28" t="n">
         <v>9.867348505920255</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03094835666443998</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04488120962690183</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -927,6 +1185,15 @@
       <c r="D29" t="n">
         <v>40.83026544367316</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.6481860230955603</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.128061719609518</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7762477427050782</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -944,6 +1211,15 @@
       <c r="D30" t="n">
         <v>18.27793196227823</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.05732765566327769</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3544234046957185</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -960,6 +1236,15 @@
       <c r="D31" t="n">
         <v>14.85736451281377</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04659924758513136</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1996466658539083</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1261,15 @@
       <c r="D32" t="n">
         <v>12.62047355929627</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.661716119694157</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03958337102950114</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7012994907236582</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1287,15 @@
       <c r="D33" t="n">
         <v>16.55516536453713</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.6164878386457318</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.05192429982918648</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6684121384749182</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1009,6 +1312,15 @@
       <c r="D34" t="n">
         <v>5.205191388558553</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.2070419432994557</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01632577581537015</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2233677191148258</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1025,6 +1337,15 @@
       <c r="D35" t="n">
         <v>10.71649993495678</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03361167004312258</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1236654757761077</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1041,6 +1362,15 @@
       <c r="D36" t="n">
         <v>14.99451761627246</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.6745476857241748</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.04702942020556001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7215771059297348</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1057,6 +1387,15 @@
       <c r="D37" t="n">
         <v>11.67403362536499</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.1490576130392373</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03661491799278107</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1856725310320184</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1074,6 +1413,15 @@
       <c r="D38" t="n">
         <v>23.66611120658331</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.1090085271073912</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.07422736209653437</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1832358892039256</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1090,6 +1438,15 @@
       <c r="D39" t="n">
         <v>32.43561832661354</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.101732403999048</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.2547798222678249</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1107,6 +1464,15 @@
       <c r="D40" t="n">
         <v>23.31833941470816</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.4690978886756239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0731365963810713</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5422344850566951</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1124,6 +1490,15 @@
       <c r="D41" t="n">
         <v>11.24259303085356</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.01895472137440609</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03526173001219576</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.05421645138660185</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1140,6 +1515,15 @@
       <c r="D42" t="n">
         <v>18.12503050185141</v>
       </c>
+      <c r="E42" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.05684808924997386</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1379028074778459</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1157,6 +1541,15 @@
       <c r="D43" t="n">
         <v>10.99986234626405</v>
       </c>
+      <c r="E43" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0345004195349614</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.1875478378037383</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1173,6 +1566,15 @@
       <c r="D44" t="n">
         <v>16.53579529673483</v>
       </c>
+      <c r="E44" t="n">
+        <v>0.006129448412573551</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0518635467538694</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.05799299516644295</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1190,6 +1592,15 @@
       <c r="D45" t="n">
         <v>32.87318419500282</v>
       </c>
+      <c r="E45" t="n">
+        <v>0.4773732733394166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1031048035399147</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5804780768793313</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1206,6 +1617,15 @@
       <c r="D46" t="n">
         <v>16.84409665638934</v>
       </c>
+      <c r="E46" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.05283051578643118</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2058779340552081</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1224,6 +1644,15 @@
       <c r="D47" t="n">
         <v>33.06192631959969</v>
       </c>
+      <c r="E47" t="n">
+        <v>0.4810421320915013</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1036967820826938</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.584738914174195</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1240,6 +1669,15 @@
       <c r="D48" t="n">
         <v>17.36289044980451</v>
       </c>
+      <c r="E48" t="n">
+        <v>0.08425159686605205</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0544576819237453</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1387092787897973</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1257,6 +1695,15 @@
       <c r="D49" t="n">
         <v>13.17330722548693</v>
       </c>
+      <c r="E49" t="n">
+        <v>0.8889084673232435</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.04131730122028271</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9302257685435262</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1273,6 +1720,15 @@
       <c r="D50" t="n">
         <v>4.60837531693704</v>
       </c>
+      <c r="E50" t="n">
+        <v>0.3510902740631195</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01445389740380593</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3655441714669255</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1289,6 +1745,15 @@
       <c r="D51" t="n">
         <v>44.04802581945749</v>
       </c>
+      <c r="E51" t="n">
+        <v>0.8598911299203927</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1381540352615623</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.9980451651819551</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1305,6 +1770,15 @@
       <c r="D52" t="n">
         <v>4.133917337341924</v>
       </c>
+      <c r="E52" t="n">
+        <v>0.3920833202227746</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01296578793184502</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.4050491081546197</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1322,6 +1796,15 @@
       <c r="D53" t="n">
         <v>23.57138394722685</v>
       </c>
+      <c r="E53" t="n">
+        <v>0.2542462477580945</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.07393025563407896</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3281765033921734</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1340,6 +1823,15 @@
       <c r="D54" t="n">
         <v>34.01361571321331</v>
       </c>
+      <c r="E54" t="n">
+        <v>0.3115823919952173</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1066816997401219</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.4182640917353392</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1356,6 +1848,15 @@
       <c r="D55" t="n">
         <v>3.816712825623821</v>
       </c>
+      <c r="E55" t="n">
+        <v>0.1350492432585507</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01197089468789693</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1470201379464476</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1374,6 +1875,15 @@
       <c r="D56" t="n">
         <v>30.64643717840028</v>
       </c>
+      <c r="E56" t="n">
+        <v>0.1909505679494037</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09612074284418211</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2870713107935858</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1390,6 +1900,15 @@
       <c r="D57" t="n">
         <v>4.60837531693704</v>
       </c>
+      <c r="E57" t="n">
+        <v>0.4050847990937982</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01445389740380593</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4195386964976041</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1407,6 +1926,15 @@
       <c r="D58" t="n">
         <v>37.47465309523149</v>
       </c>
+      <c r="E58" t="n">
+        <v>0.2236808155816368</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.117537039375019</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3412178549566558</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1423,6 +1951,15 @@
       </c>
       <c r="D59" t="n">
         <v>35.21314723148581</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.04065951354582927</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1104439596051162</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1511034731509454</v>
       </c>
     </row>
     <row r="60">
@@ -1444,6 +1981,15 @@
       <c r="D60" t="n">
         <v>25.78596042820914</v>
       </c>
+      <c r="E60" t="n">
+        <v>0.3338850256442529</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.08087614416259287</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.4147611698068457</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1460,6 +2006,15 @@
       <c r="D61" t="n">
         <v>2.0874737133771</v>
       </c>
+      <c r="E61" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0572693677680477</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1477,6 +2032,15 @@
       <c r="D62" t="n">
         <v>26.81657708041242</v>
       </c>
+      <c r="E62" t="n">
+        <v>0.1264529121173028</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.08410861251187242</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.2105615246291752</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1494,6 +2058,15 @@
       <c r="D63" t="n">
         <v>39.13022709700962</v>
       </c>
+      <c r="E63" t="n">
+        <v>0.7221484534784935</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1227296495945387</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8448781030730322</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1510,6 +2083,15 @@
       <c r="D64" t="n">
         <v>36.02121943127396</v>
       </c>
+      <c r="E64" t="n">
+        <v>0.185041376923319</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1129784304038984</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.2980198073272173</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1526,6 +2108,15 @@
       <c r="D65" t="n">
         <v>15.24583204455337</v>
       </c>
+      <c r="E65" t="n">
+        <v>0.4501431673012177</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.04781765308865833</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.497960820389876</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1544,6 +2135,15 @@
       <c r="D66" t="n">
         <v>23.91278556749557</v>
       </c>
+      <c r="E66" t="n">
+        <v>0.4344482552468456</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.07500104168197771</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.5094492969288233</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1560,6 +2160,15 @@
       <c r="D67" t="n">
         <v>31.76962140117485</v>
       </c>
+      <c r="E67" t="n">
+        <v>0.5941914980648816</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.09964354391940948</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.693835041984291</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,6 +2185,15 @@
       <c r="D68" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E68" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1594,6 +2212,15 @@
       <c r="D69" t="n">
         <v>42.31124317466323</v>
       </c>
+      <c r="E69" t="n">
+        <v>0.3275227337088197</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1327067189224817</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.4602294526313014</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1611,6 +2238,15 @@
       <c r="D70" t="n">
         <v>12.31946533288527</v>
       </c>
+      <c r="E70" t="n">
+        <v>0.1243006827978981</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.03863927647924695</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.1629399592771451</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1628,6 +2264,15 @@
       <c r="D71" t="n">
         <v>28.36022725230852</v>
       </c>
+      <c r="E71" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.08895018023964663</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3860459292720874</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1644,6 +2289,15 @@
       <c r="D72" t="n">
         <v>7.247432646552298</v>
       </c>
+      <c r="E72" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0227311450804066</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.3198268941128474</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1660,6 +2314,15 @@
       <c r="D73" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E73" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1676,6 +2339,15 @@
       <c r="D74" t="n">
         <v>14.70683554382068</v>
       </c>
+      <c r="E74" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.04612712235129236</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3432228713837331</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1692,6 +2364,15 @@
       <c r="D75" t="n">
         <v>8.477972478262956</v>
       </c>
+      <c r="E75" t="n">
+        <v>0.172002139643183</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.02659066069179218</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1985928003349752</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1709,6 +2390,15 @@
       <c r="D76" t="n">
         <v>36.08143829126702</v>
       </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1131673033068746</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.1131673033068746</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1726,6 +2416,15 @@
       <c r="D77" t="n">
         <v>29.8568326342461</v>
       </c>
+      <c r="E77" t="n">
+        <v>0.6011327522733708</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.09364419475817051</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.6947769470315414</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1742,6 +2441,15 @@
       <c r="D78" t="n">
         <v>19.66547554279856</v>
       </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.06167960427354848</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.06167960427354848</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1759,6 +2467,15 @@
       <c r="D79" t="n">
         <v>19.88736987471233</v>
       </c>
+      <c r="E79" t="n">
+        <v>0.6171234385324565</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.062375562759434</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6794990012918906</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1777,6 +2494,15 @@
       <c r="D80" t="n">
         <v>16.82639707928994</v>
       </c>
+      <c r="E80" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.05277500210668699</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.1113005362308492</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1793,6 +2519,15 @@
       <c r="D81" t="n">
         <v>5.04398527377781</v>
       </c>
+      <c r="E81" t="n">
+        <v>0.06967685094868004</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01582016234345014</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.08549701329213018</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1811,6 +2546,15 @@
       <c r="D82" t="n">
         <v>67.71315131871603</v>
       </c>
+      <c r="E82" t="n">
+        <v>0.6395833988861269</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.2123783057452044</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8519617046313313</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1827,6 +2571,15 @@
       <c r="D83" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E83" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1843,6 +2596,15 @@
       <c r="D84" t="n">
         <v>45.88648577098989</v>
       </c>
+      <c r="E84" t="n">
+        <v>0.2419055410465372</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1439202564768337</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.385825797523371</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1861,6 +2623,15 @@
       <c r="D85" t="n">
         <v>62.41994905283477</v>
       </c>
+      <c r="E85" t="n">
+        <v>0.3533620716780466</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1957764890035308</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.5491385606815773</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1877,6 +2648,15 @@
       <c r="D86" t="n">
         <v>5.994669678056931</v>
       </c>
+      <c r="E86" t="n">
+        <v>0.7922343538592241</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01880192791109965</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.8110362817703238</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1893,6 +2673,15 @@
       <c r="D87" t="n">
         <v>20.52035764654407</v>
       </c>
+      <c r="E87" t="n">
+        <v>0.1711085239608571</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.06436089157549073</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.2354694155363478</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1909,6 +2698,15 @@
       <c r="D88" t="n">
         <v>12.78611973833812</v>
       </c>
+      <c r="E88" t="n">
+        <v>0.08416349391145653</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.04010291050112445</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.124266404412581</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1925,6 +2723,15 @@
       <c r="D89" t="n">
         <v>24.40738225236012</v>
       </c>
+      <c r="E89" t="n">
+        <v>0.355621283156603</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.07655231501534115</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.4321735981719442</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1941,6 +2748,15 @@
       <c r="D90" t="n">
         <v>20.76729296241561</v>
       </c>
+      <c r="E90" t="n">
+        <v>0.9096818854032284</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0651353896307741</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.9748172750340025</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1958,6 +2774,15 @@
       <c r="D91" t="n">
         <v>33.53105207342128</v>
       </c>
+      <c r="E91" t="n">
+        <v>0.4737295868600736</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1051681673429826</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5788977542030562</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1974,6 +2799,15 @@
       <c r="D92" t="n">
         <v>4.60837531693704</v>
       </c>
+      <c r="E92" t="n">
+        <v>0.5125011799502848</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01445389740380593</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.5269550773540908</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1990,6 +2824,15 @@
       <c r="D93" t="n">
         <v>43.60265010510211</v>
       </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1367571405994066</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.136757140599407</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2008,6 +2851,15 @@
       <c r="D94" t="n">
         <v>25.96542891602068</v>
       </c>
+      <c r="E94" t="n">
+        <v>0.6323400774047386</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.08143903649050514</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7137791138952437</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2025,6 +2877,15 @@
       <c r="D95" t="n">
         <v>11.87763258060622</v>
       </c>
+      <c r="E95" t="n">
+        <v>0.1746955728265316</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.03725349410869837</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2119490669352299</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2042,6 +2903,15 @@
       <c r="D96" t="n">
         <v>13.11439520775515</v>
       </c>
+      <c r="E96" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.04113252715098831</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.1941799454197652</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2058,6 +2928,15 @@
       <c r="D97" t="n">
         <v>15.43718300806671</v>
       </c>
+      <c r="E97" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.04841781410084331</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.2014652323696202</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2074,6 +2953,15 @@
       <c r="D98" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E98" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2090,6 +2978,15 @@
       <c r="D99" t="n">
         <v>4.573283997125769</v>
       </c>
+      <c r="E99" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.01434383554871958</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.3114395845811604</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2106,6 +3003,15 @@
       <c r="D100" t="n">
         <v>13.45086744437637</v>
       </c>
+      <c r="E100" t="n">
+        <v>0.1641924420251094</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.04218785247778582</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.2063802945028952</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2122,6 +3028,15 @@
       <c r="D101" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E101" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3025091575707316</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2138,6 +3053,15 @@
       <c r="D102" t="n">
         <v>13.63318900117032</v>
       </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.04275969328830242</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.04275969328830242</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2153,6 +3077,15 @@
       </c>
       <c r="D103" t="n">
         <v>52.52345084519047</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1647367060187296</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.1647367060187296</v>
       </c>
     </row>
     <row r="104">
@@ -2173,6 +3106,15 @@
       <c r="D104" t="n">
         <v>34.64900732493252</v>
       </c>
+      <c r="E104" t="n">
+        <v>0.457864761964696</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1086745680582199</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.5665393300229159</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2190,6 +3132,15 @@
       <c r="D105" t="n">
         <v>17.19549454322723</v>
       </c>
+      <c r="E105" t="n">
+        <v>0.1395802523520343</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.05393265453489685</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.1935129068869311</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2206,6 +3157,15 @@
       <c r="D106" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E106" t="n">
+        <v>0.1614109058871653</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1787286424292811</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2222,6 +3182,15 @@
       <c r="D107" t="n">
         <v>14.43490182833704</v>
       </c>
+      <c r="E107" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.04527421828989991</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.3423699673223407</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2238,6 +3207,15 @@
       <c r="D108" t="n">
         <v>25.09965845255374</v>
       </c>
+      <c r="E108" t="n">
+        <v>0.1385481891696297</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.07872359849043488</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.2172717876600646</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2254,6 +3232,15 @@
       <c r="D109" t="n">
         <v>21.16955293957483</v>
       </c>
+      <c r="E109" t="n">
+        <v>0.08941820584626035</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.06639705432595373</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.1558152601722141</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2271,6 +3258,15 @@
       <c r="D110" t="n">
         <v>33.48425523375987</v>
       </c>
+      <c r="E110" t="n">
+        <v>0.5583524747490639</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1050213918152164</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.6633738665642803</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2287,6 +3283,15 @@
       <c r="D111" t="n">
         <v>22.6644129473015</v>
       </c>
+      <c r="E111" t="n">
+        <v>0.4321449922909915</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.07108559458119809</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5032305868721896</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2303,6 +3308,15 @@
       <c r="D112" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2319,6 +3333,15 @@
       <c r="D113" t="n">
         <v>8.44023215028011</v>
       </c>
+      <c r="E113" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.02647229037880027</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.1795197086475772</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2335,6 +3358,15 @@
       <c r="D114" t="n">
         <v>10.23199161950816</v>
       </c>
+      <c r="E114" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.03209203828547317</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.04602489124793502</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2351,6 +3383,15 @@
       <c r="D115" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2368,6 +3409,15 @@
       <c r="D116" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E116" t="n">
+        <v>0.06131336333029169</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.07865629230524065</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2385,6 +3435,15 @@
       <c r="D117" t="n">
         <v>68.68128898201503</v>
       </c>
+      <c r="E117" t="n">
+        <v>0.1955759730656682</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.2154148124304682</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4109907854961364</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2401,6 +3460,15 @@
       <c r="D118" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E118" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2417,6 +3485,15 @@
       <c r="D119" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E119" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2433,6 +3510,15 @@
       <c r="D120" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E120" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2449,6 +3535,15 @@
       <c r="D121" t="n">
         <v>26.15979754402336</v>
       </c>
+      <c r="E121" t="n">
+        <v>0.09498757119033385</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.08204866222939494</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.1770362334197288</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2465,6 +3560,15 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2481,6 +3585,15 @@
       <c r="D123" t="n">
         <v>4.60837531693704</v>
       </c>
+      <c r="E123" t="n">
+        <v>0.3510902740631195</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.01445389740380593</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.3655441714669255</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2498,6 +3611,15 @@
       <c r="D124" t="n">
         <v>25.9918647246815</v>
       </c>
+      <c r="E124" t="n">
+        <v>0.1718511060067336</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.08152195084532468</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.2533730568520582</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2514,6 +3636,15 @@
       <c r="D125" t="n">
         <v>5.994669678056931</v>
       </c>
+      <c r="E125" t="n">
+        <v>0.540134042352349</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.01880192791109965</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.5589359702634487</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2530,6 +3661,15 @@
       <c r="D126" t="n">
         <v>11.30688738155896</v>
       </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.03546338545144019</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.03546338545144019</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2546,6 +3686,15 @@
       <c r="D127" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E127" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.06768008796084671</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2562,6 +3711,15 @@
       <c r="D128" t="n">
         <v>17.06031976485898</v>
       </c>
+      <c r="E128" t="n">
+        <v>0.08035618765929328</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.05350868681444315</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.1338648744737364</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2578,6 +3736,15 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2594,6 +3761,15 @@
       <c r="D130" t="n">
         <v>6.39853093658312</v>
       </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.02006861493085161</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.02006861493085161</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2611,6 +3787,15 @@
       <c r="D131" t="n">
         <v>37.04720908040455</v>
       </c>
+      <c r="E131" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1161963864309168</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.2692438046996937</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2627,6 +3812,15 @@
       <c r="D132" t="n">
         <v>16.30510015565666</v>
       </c>
+      <c r="E132" t="n">
+        <v>0.03512161354268274</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.05113998504906524</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.08626159859174798</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2641,6 +3835,15 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,6 +3868,15 @@
       <c r="D134" t="n">
         <v>49.40511624954415</v>
       </c>
+      <c r="E134" t="n">
+        <v>0.3055221673326831</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1549562334624779</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4604784007951609</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2681,6 +3893,15 @@
       <c r="D135" t="n">
         <v>11.88225152646252</v>
       </c>
+      <c r="E135" t="n">
+        <v>0.2115729523929392</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.03726798115997549</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.2488409335529147</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2697,6 +3918,15 @@
       <c r="D136" t="n">
         <v>5.205191388558553</v>
       </c>
+      <c r="E136" t="n">
+        <v>0.06235801264906706</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.01632577581537015</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.07868378846443722</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2713,6 +3943,15 @@
       <c r="D137" t="n">
         <v>11.39389875854859</v>
       </c>
+      <c r="E137" t="n">
+        <v>0.315093924042667</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.03573629150389425</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.3508302155465612</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2729,6 +3968,15 @@
       <c r="D138" t="n">
         <v>4.422848629194137</v>
       </c>
+      <c r="E138" t="n">
+        <v>0.1641924420251094</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.01387200388908974</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1780644459141991</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2745,6 +3993,15 @@
       <c r="D139" t="n">
         <v>15.24262691360442</v>
       </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.04780760038445873</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.04780760038445873</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2762,6 +4019,15 @@
       <c r="D140" t="n">
         <v>29.23271945626847</v>
       </c>
+      <c r="E140" t="n">
+        <v>0.4274440703565024</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.09168670058236027</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5191307709388626</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2779,6 +4045,15 @@
       <c r="D141" t="n">
         <v>6.331141914678144</v>
       </c>
+      <c r="E141" t="n">
+        <v>0.50866870142538</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.01985725323789715</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5285259546632771</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2795,6 +4070,15 @@
       <c r="D142" t="n">
         <v>19.00370437015426</v>
       </c>
+      <c r="E142" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.05960399801833692</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.3566997470507777</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2811,6 +4095,15 @@
       <c r="D143" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E143" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2829,6 +4122,15 @@
       <c r="D144" t="n">
         <v>29.00941130944735</v>
       </c>
+      <c r="E144" t="n">
+        <v>0.1075800006293068</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.09098630774939723</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.198566308378704</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2845,6 +4147,15 @@
       <c r="D145" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E145" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2861,6 +4172,15 @@
       <c r="D146" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E146" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2878,6 +4198,15 @@
       <c r="D147" t="n">
         <v>54.61785484373809</v>
       </c>
+      <c r="E147" t="n">
+        <v>0.4592681161700387</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1713056806432289</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.6305737968132676</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2895,6 +4224,15 @@
       <c r="D148" t="n">
         <v>19.77977186411432</v>
       </c>
+      <c r="E148" t="n">
+        <v>0.3650231270255813</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.06203808794475876</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.4270612149703401</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2911,6 +4249,15 @@
       <c r="D149" t="n">
         <v>20.88965105444201</v>
       </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.06551915857037742</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.06551915857037742</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2927,6 +4274,15 @@
       <c r="D150" t="n">
         <v>23.21904740488672</v>
       </c>
+      <c r="E150" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.07282517284798748</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1268196978786662</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2943,6 +4299,15 @@
       <c r="D151" t="n">
         <v>18.89549078551402</v>
       </c>
+      <c r="E151" t="n">
+        <v>0.4335672257008905</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.05926459249198156</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.492831818192872</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2959,6 +4324,15 @@
       <c r="D152" t="n">
         <v>6.676643558018751</v>
       </c>
+      <c r="E152" t="n">
+        <v>0.09498757119033385</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.02094089876636306</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.1159284699566969</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2975,6 +4349,15 @@
       <c r="D153" t="n">
         <v>2.847312268435718</v>
       </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.008930427010428775</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.008930427010428775</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2991,6 +4374,15 @@
       <c r="D154" t="n">
         <v>7.608934631239347</v>
       </c>
+      <c r="E154" t="n">
+        <v>0.03678927661181209</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.02386497473588955</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.06065425134770164</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3007,6 +4399,15 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3023,6 +4424,15 @@
       <c r="D156" t="n">
         <v>23.50066097150211</v>
       </c>
+      <c r="E156" t="n">
+        <v>0.4096158081872818</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.0737084371915879</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.4833242453788696</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3039,6 +4449,15 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3055,6 +4474,15 @@
       <c r="D158" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E158" t="n">
+        <v>0.355621283156603</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.3610346916948938</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3071,6 +4499,15 @@
       <c r="D159" t="n">
         <v>17.71956539374325</v>
       </c>
+      <c r="E159" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.05557637185059467</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.2086237901193716</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3087,6 +4524,15 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="n">
+        <v>0.1260501557534376</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.1260501557534376</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3103,6 +4549,15 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3119,6 +4574,15 @@
       <c r="D162" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3135,6 +4599,15 @@
       <c r="D163" t="n">
         <v>7.71071732554929</v>
       </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.02418421015398407</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.02418421015398407</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3151,6 +4624,15 @@
       <c r="D164" t="n">
         <v>5.301522497496985</v>
       </c>
+      <c r="E164" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.01662791265745279</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.3137236616898936</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3168,6 +4650,15 @@
       <c r="D165" t="n">
         <v>34.19593727000727</v>
       </c>
+      <c r="E165" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1072535405506386</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.1883082587785106</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3184,6 +4675,15 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
+      <c r="E166" t="n">
+        <v>0.2413454579780372</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.2413454579780372</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3200,6 +4700,15 @@
       <c r="D167" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E167" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0160460191427366</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.1690934374115135</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3216,6 +4725,15 @@
       <c r="D168" t="n">
         <v>5.898338569118498</v>
       </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.01849979106901701</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.01849979106901701</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3231,6 +4749,15 @@
       </c>
       <c r="D169" t="n">
         <v>2.0874737133771</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0572693677680477</v>
       </c>
     </row>
     <row r="170">
@@ -3251,6 +4778,15 @@
       <c r="D170" t="n">
         <v>13.57025176139972</v>
       </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.04256229434746971</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.04256229434746971</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3267,6 +4803,15 @@
       <c r="D171" t="n">
         <v>8.963480294044658</v>
       </c>
+      <c r="E171" t="n">
+        <v>0.1439854000818099</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.02811342732329103</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.1720988274051009</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3282,6 +4827,15 @@
       </c>
       <c r="D172" t="n">
         <v>10.12663110385034</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.03176158124172215</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1848089995104991</v>
       </c>
     </row>
     <row r="173">
@@ -3302,6 +4856,15 @@
       <c r="D173" t="n">
         <v>41.84051479305202</v>
       </c>
+      <c r="E173" t="n">
+        <v>0.7473647776973663</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1312303071146452</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.8785950848120115</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3321,6 +4884,15 @@
       <c r="D174" t="n">
         <v>33.62720564866384</v>
       </c>
+      <c r="E174" t="n">
+        <v>0.2070419432994557</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1054697473610982</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.3125116906605538</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3337,6 +4909,15 @@
       <c r="D175" t="n">
         <v>21.45191585054901</v>
       </c>
+      <c r="E175" t="n">
+        <v>0.2530568578710551</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.06728266894394309</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.3203395268149982</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3353,6 +4934,15 @@
       <c r="D176" t="n">
         <v>5.542684554313873</v>
       </c>
+      <c r="E176" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.01738430322618774</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.3144800522586285</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3369,6 +4959,15 @@
       <c r="D177" t="n">
         <v>3.123565645063876</v>
       </c>
+      <c r="E177" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.009796879434250075</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.09985068516723519</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3385,6 +4984,15 @@
       <c r="D178" t="n">
         <v>11.97941527491617</v>
       </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.03757272952679291</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.03757272952679291</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3402,6 +5010,15 @@
       <c r="D179" t="n">
         <v>25.22650923578063</v>
       </c>
+      <c r="E179" t="n">
+        <v>0.8951197256222272</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.07912145849103321</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.9742411841132604</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3418,6 +5035,15 @@
       <c r="D180" t="n">
         <v>3.324236340526027</v>
       </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.01042627123606367</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.01042627123606367</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3434,6 +5060,15 @@
       <c r="D181" t="n">
         <v>7.214280439235399</v>
       </c>
+      <c r="E181" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.02262716513730018</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1756745834060771</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3450,6 +5085,15 @@
       <c r="D182" t="n">
         <v>0</v>
       </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3466,6 +5110,15 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
+      <c r="E183" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.1530474182687769</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3482,6 +5135,15 @@
       <c r="D184" t="n">
         <v>0</v>
       </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3498,6 +5160,15 @@
       <c r="D185" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E185" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3514,6 +5185,15 @@
       <c r="D186" t="n">
         <v>34.87173481223211</v>
       </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1093731396868379</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1093731396868379</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3530,6 +5210,15 @@
       <c r="D187" t="n">
         <v>11.68158083100037</v>
       </c>
+      <c r="E187" t="n">
+        <v>0.2431012240017621</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0366385893581619</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.279739813359924</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3546,6 +5235,15 @@
       <c r="D188" t="n">
         <v>9.656627474604603</v>
       </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.03028744257693788</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3562,6 +5260,15 @@
       <c r="D189" t="n">
         <v>46.58123423291681</v>
       </c>
+      <c r="E189" t="n">
+        <v>0.0762908656115289</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.1460992940550529</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.2223901596665818</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3578,6 +5285,15 @@
       <c r="D190" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E190" t="n">
+        <v>0.02563795978729429</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.04398602996202374</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3594,6 +5310,15 @@
       <c r="D191" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E191" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.07584327066627802</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3610,6 +5335,15 @@
       <c r="D192" t="n">
         <v>2.0874737133771</v>
       </c>
+      <c r="E192" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0572693677680477</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3626,6 +5360,15 @@
       <c r="D193" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E193" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.3025091575707316</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3642,6 +5385,15 @@
       <c r="D194" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E194" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3659,6 +5411,15 @@
       <c r="D195" t="n">
         <v>65.24813884122749</v>
       </c>
+      <c r="E195" t="n">
+        <v>0.3200528617727573</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.2046469394830481</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.5246998012558054</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3675,6 +5436,15 @@
       <c r="D196" t="n">
         <v>6.554285465992353</v>
       </c>
+      <c r="E196" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.02055712982675975</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3176528788592005</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3691,6 +5461,15 @@
       <c r="D197" t="n">
         <v>2.0874737133771</v>
       </c>
+      <c r="E197" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0572693677680477</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3707,6 +5486,15 @@
       <c r="D198" t="n">
         <v>8.195109692247124</v>
       </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.02570347824521469</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.02570347824521469</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3723,6 +5511,15 @@
       <c r="D199" t="n">
         <v>11.86390238779432</v>
       </c>
+      <c r="E199" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.03721043016867849</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.1272642359016636</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3739,6 +5536,15 @@
       <c r="D200" t="n">
         <v>7.71071732554929</v>
       </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.02418421015398407</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.02418421015398407</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3755,6 +5561,15 @@
       <c r="D201" t="n">
         <v>3.649658740960655</v>
       </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.01144693940332324</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.01144693940332324</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3771,6 +5586,15 @@
       <c r="D202" t="n">
         <v>36.83819973057147</v>
       </c>
+      <c r="E202" t="n">
+        <v>0.3561499008841761</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1155408409314388</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.4716907418156149</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3787,6 +5611,15 @@
       <c r="D203" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E203" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3803,6 +5636,15 @@
       <c r="D204" t="n">
         <v>4.422848629194137</v>
       </c>
+      <c r="E204" t="n">
+        <v>0.1305182341650672</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.01387200388908974</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.1443902380541569</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3819,6 +5661,15 @@
       <c r="D205" t="n">
         <v>7.864868005376548</v>
       </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.02466769467026496</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.02466769467026496</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3835,6 +5686,15 @@
       <c r="D206" t="n">
         <v>27.57871713245932</v>
       </c>
+      <c r="E206" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.08649901983810099</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.2395464381068779</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3851,6 +5711,15 @@
       <c r="D207" t="n">
         <v>6.919827860216406</v>
       </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.02170363198847338</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.02170363198847338</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3867,6 +5736,15 @@
       <c r="D208" t="n">
         <v>9.656627474604603</v>
       </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.03028744257693788</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3883,6 +5761,15 @@
       <c r="D209" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E209" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3899,6 +5786,15 @@
       <c r="D210" t="n">
         <v>7.203469523131183</v>
       </c>
+      <c r="E210" t="n">
+        <v>0.03678927661181209</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.02259325733651035</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.05938253394832244</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3915,6 +5811,15 @@
       <c r="D211" t="n">
         <v>29.85761280379522</v>
       </c>
+      <c r="E211" t="n">
+        <v>0.9046914823322111</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.09364664171395103</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.9983381240461621</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3931,6 +5836,15 @@
       <c r="D212" t="n">
         <v>0</v>
       </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3947,6 +5861,15 @@
       <c r="D213" t="n">
         <v>2.0874737133771</v>
       </c>
+      <c r="E213" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.0572693677680477</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3963,6 +5886,15 @@
       <c r="D214" t="n">
         <v>11.41979948698074</v>
       </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.03581752761113279</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.03581752761113279</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3979,6 +5911,15 @@
       <c r="D215" t="n">
         <v>29.71336940611151</v>
       </c>
+      <c r="E215" t="n">
+        <v>0.02563795978729429</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.09319423080383392</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.1188321905911282</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3995,6 +5936,15 @@
       <c r="D216" t="n">
         <v>16.68994597656209</v>
       </c>
+      <c r="E216" t="n">
+        <v>0.02563795978729429</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.05234703127015031</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.07798499105744461</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4011,6 +5961,15 @@
       <c r="D217" t="n">
         <v>0</v>
       </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4027,6 +5986,15 @@
       <c r="D218" t="n">
         <v>0</v>
       </c>
+      <c r="E218" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.1530474182687769</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4043,6 +6011,15 @@
       <c r="D219" t="n">
         <v>8.152550077828328</v>
       </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.02556999252453261</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.02556999252453261</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4059,6 +6036,15 @@
       <c r="D220" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.0160460191427366</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.0160460191427366</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4075,6 +6061,15 @@
       <c r="D221" t="n">
         <v>0</v>
       </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4091,6 +6086,15 @@
       <c r="D222" t="n">
         <v>0</v>
       </c>
+      <c r="E222" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.05852553412416223</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4107,6 +6111,15 @@
       <c r="D223" t="n">
         <v>8.334871634622283</v>
       </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.02614183333504922</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.02614183333504922</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4124,6 +6137,15 @@
       </c>
       <c r="D224" t="n">
         <v>18.38454169733649</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.2159781001227148</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.05766203081000579</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.2736401309327207</v>
       </c>
     </row>
     <row r="225">
@@ -4146,6 +6168,15 @@
       <c r="D225" t="n">
         <v>20.9792632131317</v>
       </c>
+      <c r="E225" t="n">
+        <v>0.09498757119033385</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.06580022182125327</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.1607877930115871</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4162,6 +6193,15 @@
       <c r="D226" t="n">
         <v>19.7741749597219</v>
       </c>
+      <c r="E226" t="n">
+        <v>0.04065951354582927</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.06202053358420796</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.1026800471300372</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4178,6 +6218,15 @@
       <c r="D227" t="n">
         <v>14.60925521548182</v>
       </c>
+      <c r="E227" t="n">
+        <v>0.3333249425757528</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.04582106740623267</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.3791460099819855</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4194,6 +6243,15 @@
       <c r="D228" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E228" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4210,6 +6268,15 @@
       <c r="D229" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E229" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4226,6 +6293,15 @@
       <c r="D230" t="n">
         <v>5.52949308955951</v>
       </c>
+      <c r="E230" t="n">
+        <v>0.04738051036782984</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.01734292897494897</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.06472343934277881</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4242,6 +6318,15 @@
       <c r="D231" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E231" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4258,6 +6343,15 @@
       <c r="D232" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E232" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4274,6 +6368,15 @@
       <c r="D233" t="n">
         <v>0</v>
       </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4290,6 +6393,15 @@
       </c>
       <c r="D234" t="n">
         <v>14.29514764027425</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.07023693401718008</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.04483588752100882</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.1150728215381889</v>
       </c>
     </row>
     <row r="235">
@@ -4312,6 +6424,15 @@
       <c r="D235" t="n">
         <v>20.9792632131317</v>
       </c>
+      <c r="E235" t="n">
+        <v>0.09498757119033385</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.06580022182125327</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.1607877930115871</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4328,6 +6449,15 @@
       <c r="D236" t="n">
         <v>23.05870475481153</v>
       </c>
+      <c r="E236" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.07232226758219383</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.1533769858100658</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4344,6 +6474,15 @@
       <c r="D237" t="n">
         <v>18.6358561256174</v>
       </c>
+      <c r="E237" t="n">
+        <v>0.112520059154841</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.05845026369310412</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.1709703228479451</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4360,6 +6499,15 @@
       <c r="D238" t="n">
         <v>9.133379330840054</v>
       </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.02864630563244712</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.02864630563244712</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4376,6 +6524,15 @@
       <c r="D239" t="n">
         <v>26.77265784647759</v>
       </c>
+      <c r="E239" t="n">
+        <v>0.08983354834649633</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.08397086242476152</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.1738044107712579</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4391,6 +6548,15 @@
       </c>
       <c r="D240" t="n">
         <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.01393285296246185</v>
       </c>
     </row>
     <row r="241">
@@ -4411,6 +6577,15 @@
       <c r="D241" t="n">
         <v>9.840550312765531</v>
       </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.03086430571202684</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.03086430571202684</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4427,6 +6602,15 @@
       <c r="D242" t="n">
         <v>14.8403669364452</v>
       </c>
+      <c r="E242" t="n">
+        <v>0.661716119694157</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0465459356892791</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.7082620553834361</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4444,6 +6628,15 @@
       <c r="D243" t="n">
         <v>13.69296448360766</v>
       </c>
+      <c r="E243" t="n">
+        <v>0.3171580504074761</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.0429471755637232</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.3601052259711993</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4460,6 +6653,15 @@
       <c r="D244" t="n">
         <v>92.38198184333351</v>
       </c>
+      <c r="E244" t="n">
+        <v>0.8912872470973223</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.2897506378476351</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.181037884944957</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4476,6 +6678,15 @@
       <c r="D245" t="n">
         <v>2.0874737133771</v>
       </c>
+      <c r="E245" t="n">
+        <v>0.05072212957427395</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00654723819377375</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0572693677680477</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4492,6 +6703,15 @@
       <c r="D246" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4508,6 +6728,15 @@
       <c r="D247" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E247" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4524,6 +6753,15 @@
       <c r="D248" t="n">
         <v>6.331141914678144</v>
       </c>
+      <c r="E248" t="n">
+        <v>0.355621283156603</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.01985725323789715</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.3754785363945002</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4540,6 +6778,15 @@
       <c r="D249" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E249" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4556,6 +6803,15 @@
       <c r="D250" t="n">
         <v>22.08584367144898</v>
       </c>
+      <c r="E250" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.06927094616846317</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.1277964802926254</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4572,6 +6828,15 @@
       <c r="D251" t="n">
         <v>12.40425045082664</v>
       </c>
+      <c r="E251" t="n">
+        <v>0.6198294578521758</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.03890520000148921</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.658734657853665</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4588,6 +6853,15 @@
       <c r="D252" t="n">
         <v>34.77902541412784</v>
       </c>
+      <c r="E252" t="n">
+        <v>0.06911676788017999</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.1090823621271971</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.1781991300073771</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4604,6 +6878,15 @@
       <c r="D253" t="n">
         <v>0</v>
       </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4620,6 +6903,15 @@
       <c r="D254" t="n">
         <v>0</v>
       </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4636,6 +6928,15 @@
       <c r="D255" t="n">
         <v>51.89245500430077</v>
       </c>
+      <c r="E255" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.162757624776599</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.2528114305095841</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4654,6 +6955,15 @@
       <c r="D256" t="n">
         <v>77.24244529685241</v>
       </c>
+      <c r="E256" t="n">
+        <v>0.711242566313206</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.2422663743199304</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.9535089406331364</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4670,6 +6980,15 @@
       <c r="D257" t="n">
         <v>2.882403588246988</v>
       </c>
+      <c r="E257" t="n">
+        <v>0.1215191466599541</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.009040488865515124</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.1305596355254692</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4686,6 +7005,15 @@
       <c r="D258" t="n">
         <v>5.817175162011292</v>
       </c>
+      <c r="E258" t="n">
+        <v>0.07357855322362418</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.01824522682921663</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.09182378005284081</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4702,6 +7030,15 @@
       <c r="D259" t="n">
         <v>13.06787519212026</v>
       </c>
+      <c r="E259" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.04098661986545561</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.1310404255984407</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4718,6 +7055,15 @@
       <c r="D260" t="n">
         <v>30.09202325676902</v>
       </c>
+      <c r="E260" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.09438185627540627</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.1529073903995685</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4734,6 +7080,15 @@
       <c r="D261" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E261" t="n">
+        <v>0.3220981089330103</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.3404461791077397</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4750,6 +7105,15 @@
       <c r="D262" t="n">
         <v>9.656627474604601</v>
       </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.03028744257693788</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4766,6 +7130,15 @@
       <c r="D263" t="n">
         <v>14.77262328435868</v>
       </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.04633346171967446</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.04633346171967446</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4782,6 +7155,15 @@
       <c r="D264" t="n">
         <v>21.82194212766261</v>
       </c>
+      <c r="E264" t="n">
+        <v>0.189836694880589</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.06844323453990392</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.2582799294204929</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4798,6 +7180,15 @@
       <c r="D265" t="n">
         <v>14.50068956887504</v>
       </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.04548055765828202</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04548055765828202</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4815,6 +7206,15 @@
       <c r="D266" t="n">
         <v>16.9040601211569</v>
       </c>
+      <c r="E266" t="n">
+        <v>0.355621283156603</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.05301858765734448</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.4086398708139475</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4831,6 +7231,15 @@
       <c r="D267" t="n">
         <v>22.26019705859376</v>
       </c>
+      <c r="E267" t="n">
+        <v>0.06235801264906706</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.06981779528479592</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.132175807933863</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4847,6 +7256,15 @@
       <c r="D268" t="n">
         <v>3.123565645063876</v>
       </c>
+      <c r="E268" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.009796879434250075</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.09985068516723519</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4863,6 +7281,15 @@
       <c r="D269" t="n">
         <v>25.94110834305852</v>
       </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.08136275644770896</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.08136275644770896</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -4879,6 +7306,15 @@
       <c r="D270" t="n">
         <v>7.451930882429682</v>
       </c>
+      <c r="E270" t="n">
+        <v>0.06967685094868004</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.02337254173700435</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.09304939268568439</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -4895,6 +7331,15 @@
       <c r="D271" t="n">
         <v>19.63734170355479</v>
       </c>
+      <c r="E271" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.06159136414594643</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.1155858891766252</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -4911,6 +7356,15 @@
       <c r="D272" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E272" t="n">
+        <v>0.1305182341650672</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.1396727880017516</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -4926,6 +7380,15 @@
       </c>
       <c r="D273" t="n">
         <v>7.459402897268383</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.02339597727088576</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.02339597727088576</v>
       </c>
     </row>
     <row r="274">
@@ -5024,6 +7487,15 @@
       <c r="D274" t="n">
         <v>313.3112516848704</v>
       </c>
+      <c r="E274" t="n">
+        <v>0.9720839495295932</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.9826822634578843</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.954766212987478</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5040,6 +7512,15 @@
       <c r="D275" t="n">
         <v>0</v>
       </c>
+      <c r="E275" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.1530474182687769</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5056,6 +7537,15 @@
       <c r="D276" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E276" t="n">
+        <v>0.1066926780151663</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.1250407481898957</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5072,6 +7562,15 @@
       <c r="D277" t="n">
         <v>22.19947832355906</v>
       </c>
+      <c r="E277" t="n">
+        <v>0.103986658695447</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.06962735455323162</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.1736140132486786</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5087,6 +7586,15 @@
       </c>
       <c r="D278" t="n">
         <v>3.123565645063876</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.1485793398571474</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.009796879434250075</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.1583762192913974</v>
       </c>
     </row>
     <row r="279">
@@ -5110,6 +7618,15 @@
       <c r="D279" t="n">
         <v>170.3308858813281</v>
       </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.5342327783459326</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.5342327783459326</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5127,6 +7644,15 @@
       <c r="D280" t="n">
         <v>9.656627474604601</v>
       </c>
+      <c r="E280" t="n">
+        <v>0.009477360687203047</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.03976480326414093</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5143,6 +7669,15 @@
       <c r="D281" t="n">
         <v>0</v>
       </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5159,6 +7694,15 @@
       <c r="D282" t="n">
         <v>9.061368794863782</v>
       </c>
+      <c r="E282" t="n">
+        <v>0.1490639061074227</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.02842044883316067</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.1774843549405833</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5175,6 +7719,15 @@
       <c r="D283" t="n">
         <v>4.60837531693704</v>
       </c>
+      <c r="E283" t="n">
+        <v>0.3510902740631195</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.01445389740380593</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.3655441714669255</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5191,6 +7744,15 @@
       <c r="D284" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E284" t="n">
+        <v>0.02229634058085019</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.02984871997440441</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5207,6 +7769,15 @@
       <c r="D285" t="n">
         <v>16.87226753335604</v>
       </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0529188720806669</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0529188720806669</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5223,6 +7794,15 @@
       <c r="D286" t="n">
         <v>0</v>
       </c>
+      <c r="E286" t="n">
+        <v>0.0792360215222932</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0792360215222932</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5239,6 +7819,15 @@
       <c r="D287" t="n">
         <v>12.82671313530337</v>
       </c>
+      <c r="E287" t="n">
+        <v>0.06068405651175231</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.04023022929672065</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.100914285808473</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5255,6 +7844,15 @@
       <c r="D288" t="n">
         <v>17.59720730171685</v>
       </c>
+      <c r="E288" t="n">
+        <v>0.3646203706617161</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.05519260291099135</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.4198129735727075</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5271,6 +7869,15 @@
       <c r="D289" t="n">
         <v>13.60360430929628</v>
       </c>
+      <c r="E289" t="n">
+        <v>0.370674302256065</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.0426669026469892</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.4133412049030541</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5288,6 +7895,15 @@
       <c r="D290" t="n">
         <v>14.77262328435869</v>
       </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.04633346171967449</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04633346171967449</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5304,6 +7920,15 @@
       <c r="D291" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5320,6 +7945,15 @@
       <c r="D292" t="n">
         <v>9.656627474604603</v>
       </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.03028744257693788</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5336,6 +7970,15 @@
       <c r="D293" t="n">
         <v>10.63745672761633</v>
       </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.03336375568485239</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.03336375568485239</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5352,6 +7995,15 @@
       <c r="D294" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E294" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.3025091575707316</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5368,6 +8020,15 @@
       <c r="D295" t="n">
         <v>0</v>
       </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5384,6 +8045,15 @@
       <c r="D296" t="n">
         <v>24.56278215158781</v>
       </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.07703971763459912</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.07703971763459912</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5400,6 +8070,15 @@
       <c r="D297" t="n">
         <v>0</v>
       </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5416,6 +8095,15 @@
       <c r="D298" t="n">
         <v>16.56438275358674</v>
       </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.0519532096263474</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0519532096263474</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5432,6 +8120,15 @@
       <c r="D299" t="n">
         <v>16.56438275358674</v>
       </c>
+      <c r="E299" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.0519532096263474</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.1330079278542194</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5448,6 +8145,15 @@
       <c r="D300" t="n">
         <v>44.60755518070431</v>
       </c>
+      <c r="E300" t="n">
+        <v>0.2546741763947013</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1399089661050106</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.3945831424997119</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5464,6 +8170,15 @@
       <c r="D301" t="n">
         <v>17.66334710422139</v>
       </c>
+      <c r="E301" t="n">
+        <v>0.3160504704068469</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.05540004650096875</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.3714505169078156</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5480,6 +8195,15 @@
       <c r="D302" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E302" t="n">
+        <v>0.1066926780151663</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.1250407481898957</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5496,6 +8220,15 @@
       <c r="D303" t="n">
         <v>19.15464991903256</v>
       </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.0600774298304182</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.0600774298304182</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5512,6 +8245,15 @@
       <c r="D304" t="n">
         <v>3.442019376182411</v>
       </c>
+      <c r="E304" t="n">
+        <v>0.01170510682483245</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.01079569078117523</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.02250079760600767</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5528,6 +8270,15 @@
       <c r="D305" t="n">
         <v>9.656627474604603</v>
       </c>
+      <c r="E305" t="n">
+        <v>0.2250401183096819</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.03028744257693788</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.2553275608866198</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5543,6 +8294,15 @@
       </c>
       <c r="D306" t="n">
         <v>9.721165995742174</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.03048986384234294</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.03048986384234294</v>
       </c>
     </row>
     <row r="307">
@@ -5638,6 +8398,15 @@
       <c r="D307" t="n">
         <v>318.8327126027326</v>
       </c>
+      <c r="E307" t="n">
+        <v>0.9720839495295932</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1.972083949529593</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5654,6 +8423,15 @@
       <c r="D308" t="n">
         <v>5.549860392383945</v>
       </c>
+      <c r="E308" t="n">
+        <v>0.225505805355401</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.01740680981910129</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.2429126151745023</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5670,6 +8448,15 @@
       <c r="D309" t="n">
         <v>23.61832054274696</v>
       </c>
+      <c r="E309" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.07407746949785396</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.08801032246031582</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5686,6 +8473,15 @@
       <c r="D310" t="n">
         <v>6.104857234463072</v>
       </c>
+      <c r="E310" t="n">
+        <v>0.04849438343664454</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.01914752468348428</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06764190812012882</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5702,6 +8498,15 @@
       <c r="D311" t="n">
         <v>18.8871705538983</v>
       </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.05923849657620241</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05923849657620241</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -5718,6 +8523,15 @@
       <c r="D312" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -5734,6 +8548,15 @@
       <c r="D313" t="n">
         <v>9.097011686669179</v>
       </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.02853224066127778</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.02853224066127778</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -5750,6 +8573,15 @@
       <c r="D314" t="n">
         <v>2.882403588246988</v>
       </c>
+      <c r="E314" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.009040488865515124</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06303501389619384</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -5766,6 +8598,15 @@
       <c r="D315" t="n">
         <v>13.8075423883151</v>
       </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.04330654240463518</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04330654240463518</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -5782,6 +8623,15 @@
       <c r="D316" t="n">
         <v>37.95657936943412</v>
       </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.1190485727125755</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.1190485727125755</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -5797,6 +8647,15 @@
       </c>
       <c r="D317" t="n">
         <v>6.148820357884189</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.01928541242738054</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.3163811614598213</v>
       </c>
     </row>
     <row r="318">
@@ -5818,6 +8677,15 @@
       <c r="D318" t="n">
         <v>33.81394451808424</v>
       </c>
+      <c r="E318" t="n">
+        <v>0.2025738648878261</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.1060554428121578</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.3086293076999838</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -5834,6 +8702,15 @@
       <c r="D319" t="n">
         <v>16.15891764547857</v>
       </c>
+      <c r="E319" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.05068149222696818</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.2037289104957451</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -5850,6 +8727,15 @@
       <c r="D320" t="n">
         <v>0</v>
       </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -5867,6 +8753,15 @@
       <c r="D321" t="n">
         <v>38.14350521285483</v>
       </c>
+      <c r="E321" t="n">
+        <v>0.2021962807967024</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.1196348545965604</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.3218311353932628</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -5883,6 +8778,15 @@
       <c r="D322" t="n">
         <v>24.29311858463871</v>
       </c>
+      <c r="E322" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.07619393376020381</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.134719467884366</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -5900,6 +8804,15 @@
       <c r="D323" t="n">
         <v>51.8522825713493</v>
       </c>
+      <c r="E323" t="n">
+        <v>0.2206349705799062</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.1626316263098057</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.383266596889712</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -5916,6 +8829,15 @@
       <c r="D324" t="n">
         <v>5.994669678056931</v>
       </c>
+      <c r="E324" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.01880192791109965</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.3158976769435404</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -5933,6 +8855,15 @@
       <c r="D325" t="n">
         <v>42.96582910559839</v>
       </c>
+      <c r="E325" t="n">
+        <v>0.4697964192442025</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.1347597890908203</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.6045562083350229</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -5949,6 +8880,15 @@
       <c r="D326" t="n">
         <v>13.23217824341154</v>
       </c>
+      <c r="E326" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.04150194669609987</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.09549647172677858</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -5965,6 +8905,15 @@
       <c r="D327" t="n">
         <v>4.828313737302302</v>
       </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.01514372128846894</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.01514372128846894</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -5981,6 +8930,15 @@
       <c r="D328" t="n">
         <v>5.549860392383945</v>
       </c>
+      <c r="E328" t="n">
+        <v>0.144451087127529</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.01740680981910129</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.1618578969466303</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -5997,6 +8955,15 @@
       <c r="D329" t="n">
         <v>16.96420829399318</v>
       </c>
+      <c r="E329" t="n">
+        <v>0.9704414587332054</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.05320723885422222</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1.023648697587428</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -6013,6 +8980,15 @@
       <c r="D330" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E330" t="n">
+        <v>0.1669802712312388</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.174532650624793</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -6029,6 +9005,15 @@
       </c>
       <c r="D331" t="n">
         <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05852553412416223</v>
       </c>
     </row>
     <row r="332">
@@ -6050,6 +9035,15 @@
       <c r="D332" t="n">
         <v>40.70927727706783</v>
       </c>
+      <c r="E332" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.1276822473602068</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.2087369655880788</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -6066,6 +9060,15 @@
       <c r="D333" t="n">
         <v>6.830794237846009</v>
       </c>
+      <c r="E333" t="n">
+        <v>0.02229634058085019</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.02142438328264396</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04372072386349414</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -6082,6 +9085,15 @@
       <c r="D334" t="n">
         <v>8.845697258388274</v>
       </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.02774400777817947</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.02774400777817947</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -6098,6 +9110,15 @@
       <c r="D335" t="n">
         <v>6.765006497308006</v>
       </c>
+      <c r="E335" t="n">
+        <v>0.4780088732261414</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.02121804391426184</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.4992269171404032</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -6114,6 +9135,15 @@
       <c r="D336" t="n">
         <v>9.461883397812091</v>
       </c>
+      <c r="E336" t="n">
+        <v>0.1809131241937006</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.02967663926506077</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.2105897634587614</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -6130,6 +9160,15 @@
       <c r="D337" t="n">
         <v>8.477972478262956</v>
       </c>
+      <c r="E337" t="n">
+        <v>0.01895472137440609</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.02659066069179218</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04554538206619828</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -6146,6 +9185,15 @@
       <c r="D338" t="n">
         <v>8.622553707074065</v>
       </c>
+      <c r="E338" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.02704413118931688</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.08556966531347911</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -6162,6 +9210,15 @@
       <c r="D339" t="n">
         <v>13.56865048003275</v>
       </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.04255727202289736</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04255727202289736</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -6178,6 +9235,15 @@
       <c r="D340" t="n">
         <v>0</v>
       </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -6194,6 +9260,15 @@
       <c r="D341" t="n">
         <v>0</v>
       </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -6210,6 +9285,15 @@
       <c r="D342" t="n">
         <v>2.95651156040071</v>
       </c>
+      <c r="E342" t="n">
+        <v>0.01895472137440609</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.009272924149676388</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.02822764552408248</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -6226,6 +9310,15 @@
       <c r="D343" t="n">
         <v>3.123565645063876</v>
       </c>
+      <c r="E343" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.009796879434250075</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.09985068516723519</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -6242,6 +9335,15 @@
       <c r="D344" t="n">
         <v>14.77262328435868</v>
       </c>
+      <c r="E344" t="n">
+        <v>0.03400144740568264</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.04633346171967446</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0803349091253571</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -6258,6 +9360,15 @@
       <c r="D345" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E345" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -6274,6 +9385,15 @@
       <c r="D346" t="n">
         <v>30.01525019796311</v>
       </c>
+      <c r="E346" t="n">
+        <v>0.08941820584626035</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.09414106210413321</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.1835592679503936</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -6290,6 +9410,15 @@
       <c r="D347" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E347" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.09837245476998781</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -6306,6 +9435,15 @@
       <c r="D348" t="n">
         <v>43.13921485673441</v>
       </c>
+      <c r="E348" t="n">
+        <v>0.04065951354582927</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.1353036032738777</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.175963116819707</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -6321,6 +9459,15 @@
       </c>
       <c r="D349" t="n">
         <v>30.27921574379757</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.02341021364966489</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.09496897447134181</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.1183791881210067</v>
       </c>
     </row>
     <row r="350">
@@ -6341,6 +9488,15 @@
       <c r="D350" t="n">
         <v>40.87585047689363</v>
       </c>
+      <c r="E350" t="n">
+        <v>0.0278657059249237</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.1282046943778481</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.1560704003027719</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -6357,6 +9513,15 @@
       <c r="D351" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E351" t="n">
+        <v>0.05127591957458859</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06962398974931804</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6373,6 +9538,15 @@
       <c r="D352" t="n">
         <v>11.74611935213794</v>
       </c>
+      <c r="E352" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.03684101062356695</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.09083553565424567</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -6389,6 +9563,15 @@
       <c r="D353" t="n">
         <v>10.75774289349083</v>
       </c>
+      <c r="E353" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0337410261502716</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.08773555118095032</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6404,6 +9587,15 @@
       </c>
       <c r="D354" t="n">
         <v>19.29455587177672</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.06051623660028212</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.1505700423332672</v>
       </c>
     </row>
     <row r="355">
@@ -6424,6 +9616,15 @@
       <c r="D355" t="n">
         <v>7.844248718173811</v>
       </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.02460302349197082</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.02460302349197082</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6440,6 +9641,15 @@
       <c r="D356" t="n">
         <v>23.09507239898241</v>
       </c>
+      <c r="E356" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.07243633255336318</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.1309618666775254</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6456,6 +9666,15 @@
       <c r="D357" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -6472,6 +9691,15 @@
       <c r="D358" t="n">
         <v>0</v>
       </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6488,6 +9716,15 @@
       <c r="D359" t="n">
         <v>49.81829490385035</v>
       </c>
+      <c r="E359" t="n">
+        <v>0.05399452503067872</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.1562521439446028</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.2102466689752815</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -6504,6 +9741,15 @@
       <c r="D360" t="n">
         <v>13.92532542397148</v>
       </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.04367596194974671</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04367596194974671</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -6520,6 +9766,15 @@
       <c r="D361" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -6536,6 +9791,15 @@
       <c r="D362" t="n">
         <v>2.322787800311565</v>
       </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.007285286949855023</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.007285286949855023</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -6552,6 +9816,15 @@
       <c r="D363" t="n">
         <v>9.944309547056385</v>
       </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.03118974043120554</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.03118974043120554</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -6568,6 +9841,15 @@
       <c r="D364" t="n">
         <v>13.29671676454911</v>
       </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.04170436796150493</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04170436796150493</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -6584,6 +9866,15 @@
       <c r="D365" t="n">
         <v>93.82869655704231</v>
       </c>
+      <c r="E365" t="n">
+        <v>0.3016896888077782</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.294288173227549</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.5959778620353272</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -6600,6 +9891,15 @@
       <c r="D366" t="n">
         <v>5.039034768617954</v>
       </c>
+      <c r="E366" t="n">
+        <v>0.1809131241937006</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.01580463537597104</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.1967177595696717</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -6616,6 +9916,15 @@
       <c r="D367" t="n">
         <v>30.64385885738548</v>
       </c>
+      <c r="E367" t="n">
+        <v>0.07199270004090494</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.09611265609237502</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.16810535613328</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -6632,6 +9941,15 @@
       <c r="D368" t="n">
         <v>5.039034768617954</v>
       </c>
+      <c r="E368" t="n">
+        <v>0.1809131241937006</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.01580463537597104</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.1967177595696717</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -6648,6 +9966,15 @@
       <c r="D369" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -6664,6 +9991,15 @@
       <c r="D370" t="n">
         <v>21.59718697245406</v>
       </c>
+      <c r="E370" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.06773830325047066</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.1487930214783427</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -6680,6 +10016,15 @@
       <c r="D371" t="n">
         <v>13.94910595263688</v>
       </c>
+      <c r="E371" t="n">
+        <v>0.03678927661181209</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.04375054817545509</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08053982478726718</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -6696,6 +10041,15 @@
       <c r="D372" t="n">
         <v>0</v>
       </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -6712,6 +10066,15 @@
       <c r="D373" t="n">
         <v>15.87123557302679</v>
       </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.04977919437270052</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.04977919437270052</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -6728,6 +10091,15 @@
       <c r="D374" t="n">
         <v>0</v>
       </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -6744,6 +10116,15 @@
       <c r="D375" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E375" t="n">
+        <v>0.008363487618388345</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.04299896070261993</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -6761,6 +10142,15 @@
       <c r="D376" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -6777,6 +10167,15 @@
       <c r="D377" t="n">
         <v>27.20183948120307</v>
       </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.08531696531119978</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08531696531119978</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -6793,6 +10192,15 @@
       <c r="D378" t="n">
         <v>18.91826114096833</v>
       </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.05933601036898805</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.05933601036898805</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -6809,6 +10217,15 @@
       <c r="D379" t="n">
         <v>35.06670748657962</v>
       </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.1099846599814647</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1099846599814647</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -6825,6 +10242,15 @@
       <c r="D380" t="n">
         <v>18.29035448227679</v>
       </c>
+      <c r="E380" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.05736661816463819</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.354462367197079</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -6841,6 +10267,15 @@
       <c r="D381" t="n">
         <v>27.93580865628327</v>
       </c>
+      <c r="E381" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.08761901634319263</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1015518693056545</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -6858,6 +10293,15 @@
       <c r="D382" t="n">
         <v>38.24476131692755</v>
       </c>
+      <c r="E382" t="n">
+        <v>0.1395802523520343</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.1199524383954313</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.2595326907474656</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -6874,6 +10318,15 @@
       <c r="D383" t="n">
         <v>15.06030535681047</v>
       </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.04723575957394214</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.04723575957394214</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -6890,6 +10343,15 @@
       <c r="D384" t="n">
         <v>14.6548402487023</v>
       </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.04596404217456292</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.04596404217456292</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -6906,6 +10368,15 @@
       <c r="D385" t="n">
         <v>11.00370112257121</v>
       </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.03451245963045795</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.03451245963045795</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -6922,6 +10393,15 @@
       <c r="D386" t="n">
         <v>15.87123557302679</v>
       </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.04977919437270052</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.04977919437270052</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -6938,6 +10418,15 @@
       <c r="D387" t="n">
         <v>6.39853093658312</v>
       </c>
+      <c r="E387" t="n">
+        <v>0.008363487618388345</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.02006861493085161</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.02843210254923996</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -6954,6 +10443,15 @@
       <c r="D388" t="n">
         <v>4.828313737302302</v>
       </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.01514372128846894</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.01514372128846894</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -6970,6 +10468,15 @@
       <c r="D389" t="n">
         <v>55.83079531804627</v>
       </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.1751099969080392</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1751099969080392</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -6986,6 +10493,15 @@
       <c r="D390" t="n">
         <v>5.849964984834283</v>
       </c>
+      <c r="E390" t="n">
+        <v>0.05127591957458859</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.01834807017472945</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.06962398974931804</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -7002,6 +10518,15 @@
       <c r="D391" t="n">
         <v>29.32210301740315</v>
       </c>
+      <c r="E391" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.09196704685048632</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1058998998129482</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -7018,6 +10543,15 @@
       <c r="D392" t="n">
         <v>48.72521429573422</v>
       </c>
+      <c r="E392" t="n">
+        <v>0.1356470847361631</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.1528237610813986</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.2884708458175617</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -7034,6 +10568,15 @@
       <c r="D393" t="n">
         <v>11.05297217157799</v>
       </c>
+      <c r="E393" t="n">
+        <v>0.185041376923319</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.03466699536992007</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.219708372293239</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -7050,6 +10593,15 @@
       <c r="D394" t="n">
         <v>13.96169306814236</v>
       </c>
+      <c r="E394" t="n">
+        <v>0.06410119253642113</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.04379002692091608</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1078912194573372</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -7066,6 +10618,15 @@
       <c r="D395" t="n">
         <v>10.97713409518649</v>
       </c>
+      <c r="E395" t="n">
+        <v>0.3048991535823291</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.03442913371584948</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.3393282872981785</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -7082,6 +10643,15 @@
       <c r="D396" t="n">
         <v>13.45086744437636</v>
       </c>
+      <c r="E396" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.04218785247778579</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.05612070544024764</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -7099,6 +10669,15 @@
       <c r="D397" t="n">
         <v>10.09474491498802</v>
       </c>
+      <c r="E397" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.03166157209083539</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.3287573211232762</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -7115,6 +10694,15 @@
       <c r="D398" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.0160460191427366</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.0160460191427366</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -7131,6 +10719,15 @@
       <c r="D399" t="n">
         <v>16.56438275358674</v>
       </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.0519532096263474</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.0519532096263474</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -7147,6 +10744,15 @@
       <c r="D400" t="n">
         <v>0</v>
       </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -7163,6 +10769,15 @@
       <c r="D401" t="n">
         <v>10.12663110385034</v>
       </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.03176158124172215</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.03176158124172215</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -7179,6 +10794,15 @@
       <c r="D402" t="n">
         <v>21.72589907864263</v>
       </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.06814200118076724</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.06814200118076724</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -7196,6 +10820,15 @@
       <c r="D403" t="n">
         <v>5.549860392383945</v>
       </c>
+      <c r="E403" t="n">
+        <v>0.144451087127529</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.01740680981910129</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1618578969466303</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -7212,6 +10845,15 @@
       <c r="D404" t="n">
         <v>66.20874085017751</v>
       </c>
+      <c r="E404" t="n">
+        <v>0.1693527579371323</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.2076598110328597</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.3770125689699919</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -7228,6 +10870,15 @@
       <c r="D405" t="n">
         <v>17.43508845224041</v>
       </c>
+      <c r="E405" t="n">
+        <v>0.3510902740631195</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.05468412670052659</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.4057744007636461</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -7245,6 +10896,15 @@
       <c r="D406" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E406" t="n">
+        <v>0.1530474182687769</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1703651548108927</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -7263,6 +10923,15 @@
       <c r="D407" t="n">
         <v>30.70293233909199</v>
       </c>
+      <c r="E407" t="n">
+        <v>0.08465435322991724</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.09629793658390386</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1809522898138211</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -7279,6 +10948,15 @@
       <c r="D408" t="n">
         <v>48.73379803942561</v>
       </c>
+      <c r="E408" t="n">
+        <v>0.1254145558667128</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.1528506834872625</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2782652393539753</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -7295,6 +10973,15 @@
       <c r="D409" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E409" t="n">
+        <v>0.07199270004090494</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.0160460191427366</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.08803871918364153</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -7312,6 +10999,15 @@
       <c r="D410" t="n">
         <v>7.561681746388802</v>
       </c>
+      <c r="E410" t="n">
+        <v>0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.02371676884928273</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.02371676884928273</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -7328,6 +11024,15 @@
       <c r="D411" t="n">
         <v>18.54488434741167</v>
       </c>
+      <c r="E411" t="n">
+        <v>0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.05816493607579942</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.05816493607579942</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7344,6 +11049,15 @@
       <c r="D412" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E412" t="n">
+        <v>0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7360,6 +11074,15 @@
       <c r="D413" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E413" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7376,6 +11099,15 @@
       <c r="D414" t="n">
         <v>13.45086744437636</v>
       </c>
+      <c r="E414" t="n">
+        <v>0.0278657059249237</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.04218785247778579</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.07005355840270949</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7392,6 +11124,15 @@
       <c r="D415" t="n">
         <v>21.57661932904997</v>
       </c>
+      <c r="E415" t="n">
+        <v>0.07023064094899469</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.06767379404990528</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1379044349989</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7408,6 +11149,15 @@
       <c r="D416" t="n">
         <v>14.36715817625052</v>
       </c>
+      <c r="E416" t="n">
+        <v>0</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.04506174432029527</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.04506174432029527</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7424,6 +11174,15 @@
       <c r="D417" t="n">
         <v>16.56438275358674</v>
       </c>
+      <c r="E417" t="n">
+        <v>0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.0519532096263474</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.0519532096263474</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -7440,6 +11199,15 @@
       <c r="D418" t="n">
         <v>24.49378928010086</v>
       </c>
+      <c r="E418" t="n">
+        <v>0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.07682332556201742</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.07682332556201742</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7456,6 +11224,15 @@
       <c r="D419" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -7472,6 +11249,15 @@
       <c r="D420" t="n">
         <v>10.34977465516455</v>
       </c>
+      <c r="E420" t="n">
+        <v>0</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.03246145783058475</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.03246145783058475</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -7488,6 +11274,15 @@
       <c r="D421" t="n">
         <v>15.06475970715985</v>
       </c>
+      <c r="E421" t="n">
+        <v>0.01170510682483245</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.04724973038111879</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.05895483720595123</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -7504,6 +11299,15 @@
       <c r="D422" t="n">
         <v>7.577185932924767</v>
       </c>
+      <c r="E422" t="n">
+        <v>0.008363487618388345</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.02376539681599731</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.03212888443438566</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -7520,6 +11324,15 @@
       <c r="D423" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E423" t="n">
+        <v>0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -7536,6 +11349,15 @@
       <c r="D424" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E424" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -7552,6 +11374,15 @@
       <c r="D425" t="n">
         <v>0</v>
       </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -7568,6 +11399,15 @@
       <c r="D426" t="n">
         <v>0</v>
       </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -7584,6 +11424,15 @@
       <c r="D427" t="n">
         <v>14.58282971272603</v>
       </c>
+      <c r="E427" t="n">
+        <v>0.06131965639847708</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.04573818537527646</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1070578417737535</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -7600,6 +11449,15 @@
       <c r="D428" t="n">
         <v>8.270333113484712</v>
       </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.02593941206964417</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.02593941206964417</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -7616,6 +11474,15 @@
       <c r="D429" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E429" t="n">
+        <v>0.2970957490324408</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.3025091575707316</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -7632,6 +11499,15 @@
       <c r="D430" t="n">
         <v>11.37142590269653</v>
       </c>
+      <c r="E430" t="n">
+        <v>0.02563795978729429</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.03566580671684524</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.06130376650413954</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -7648,6 +11524,15 @@
       <c r="D431" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E431" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -7664,6 +11549,15 @@
       <c r="D432" t="n">
         <v>7.929406526514118</v>
       </c>
+      <c r="E432" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.02487011593567001</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.03880296889813186</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -7680,6 +11574,15 @@
       <c r="D433" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E433" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -7696,6 +11599,15 @@
       <c r="D434" t="n">
         <v>9.028018815182229</v>
       </c>
+      <c r="E434" t="n">
+        <v>0.05852553412416223</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.02831584858869608</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.08684138271285831</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -7712,6 +11624,15 @@
       <c r="D435" t="n">
         <v>0</v>
       </c>
+      <c r="E435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -7728,6 +11649,15 @@
       <c r="D436" t="n">
         <v>3.123565645063876</v>
       </c>
+      <c r="E436" t="n">
+        <v>0.09005380573298512</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.009796879434250075</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.09985068516723519</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -7744,6 +11674,15 @@
       <c r="D437" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E437" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -7760,6 +11699,15 @@
       <c r="D438" t="n">
         <v>3.442019376182411</v>
       </c>
+      <c r="E438" t="n">
+        <v>0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.01079569078117523</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.01079569078117523</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -7776,6 +11724,15 @@
       <c r="D439" t="n">
         <v>2.407945608651872</v>
       </c>
+      <c r="E439" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.007552379393554218</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.02148523235601607</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -7792,6 +11749,15 @@
       <c r="D440" t="n">
         <v>21.1711542209418</v>
       </c>
+      <c r="E440" t="n">
+        <v>0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.06640207665052607</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.06640207665052607</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -7808,6 +11774,15 @@
       <c r="D441" t="n">
         <v>8.645026562926121</v>
       </c>
+      <c r="E441" t="n">
+        <v>0.1711085239608571</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.02711461597636587</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.198223139937223</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -7825,6 +11800,15 @@
       <c r="D442" t="n">
         <v>0</v>
       </c>
+      <c r="E442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -7841,6 +11825,15 @@
       <c r="D443" t="n">
         <v>15.06030535681046</v>
       </c>
+      <c r="E443" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.04723575957394211</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1282904778018141</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -7857,6 +11850,15 @@
       </c>
       <c r="D444" t="n">
         <v>32.01773069850681</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.1004217240983082</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1004217240983082</v>
       </c>
     </row>
     <row r="445">
@@ -7877,6 +11879,15 @@
       <c r="D445" t="n">
         <v>29.32210301740316</v>
       </c>
+      <c r="E445" t="n">
+        <v>0.01393285296246185</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.09196704685048634</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1058998998129482</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -7894,6 +11905,15 @@
       <c r="D446" t="n">
         <v>0</v>
       </c>
+      <c r="E446" t="n">
+        <v>0.07199270004090494</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.07199270004090494</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -7910,6 +11930,15 @@
       <c r="D447" t="n">
         <v>16.56438275358674</v>
       </c>
+      <c r="E447" t="n">
+        <v>0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.0519532096263474</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.0519532096263474</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -7928,6 +11957,15 @@
       <c r="D448" t="n">
         <v>24.82229334707289</v>
       </c>
+      <c r="E448" t="n">
+        <v>0.1948459771561625</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.07785365919463104</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2726996363507935</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -7944,6 +11982,15 @@
       <c r="D449" t="n">
         <v>19.26001043469039</v>
       </c>
+      <c r="E449" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.06040788687416925</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1414626051020413</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -7960,6 +12007,15 @@
       <c r="D450" t="n">
         <v>14.54947973304448</v>
       </c>
+      <c r="E450" t="n">
+        <v>0</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.04563358513081189</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.04563358513081189</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -7976,6 +12032,15 @@
       <c r="D451" t="n">
         <v>0</v>
       </c>
+      <c r="E451" t="n">
+        <v>0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -7992,6 +12057,15 @@
       <c r="D452" t="n">
         <v>49.29102205391756</v>
       </c>
+      <c r="E452" t="n">
+        <v>0.3151568547245209</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.1545983837465714</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.4697552384710923</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -8008,6 +12082,15 @@
       <c r="D453" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E453" t="n">
+        <v>0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -8024,6 +12107,15 @@
       <c r="D454" t="n">
         <v>16.15891764547857</v>
       </c>
+      <c r="E454" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.05068149222696818</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1317362104548402</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -8040,6 +12132,15 @@
       <c r="D455" t="n">
         <v>10.63745672761633</v>
       </c>
+      <c r="E455" t="n">
+        <v>0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.03336375568485239</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.03336375568485239</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -8058,6 +12159,15 @@
       <c r="D456" t="n">
         <v>16.89288682055878</v>
       </c>
+      <c r="E456" t="n">
+        <v>0.0278657059249237</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.05298354325896105</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.08084924918388475</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -8074,6 +12184,15 @@
       <c r="D457" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E457" t="n">
+        <v>0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -8090,6 +12209,15 @@
       <c r="D458" t="n">
         <v>4.828313737302302</v>
       </c>
+      <c r="E458" t="n">
+        <v>0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.01514372128846894</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.01514372128846894</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -8106,6 +12234,15 @@
       <c r="D459" t="n">
         <v>5.039034768617954</v>
       </c>
+      <c r="E459" t="n">
+        <v>0.09985840596582864</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.01580463537597104</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1156630413417997</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -8122,6 +12259,15 @@
       <c r="D460" t="n">
         <v>7.561681746388802</v>
       </c>
+      <c r="E460" t="n">
+        <v>0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.02371676884928273</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.02371676884928273</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -8138,6 +12284,15 @@
       <c r="D461" t="n">
         <v>1.725971728690052</v>
       </c>
+      <c r="E461" t="n">
+        <v>0.4501431673012177</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.005413408538290808</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4555565758395085</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -8154,6 +12309,15 @@
       <c r="D462" t="n">
         <v>17.68831285023914</v>
       </c>
+      <c r="E462" t="n">
+        <v>0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.05547835009100487</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.05547835009100487</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -8170,6 +12334,15 @@
       <c r="D463" t="n">
         <v>0</v>
       </c>
+      <c r="E463" t="n">
+        <v>0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -8186,6 +12359,15 @@
       <c r="D464" t="n">
         <v>40.87585047689365</v>
       </c>
+      <c r="E464" t="n">
+        <v>0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.1282046943778482</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.1282046943778482</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -8202,6 +12384,15 @@
       <c r="D465" t="n">
         <v>15.06030535681047</v>
       </c>
+      <c r="E465" t="n">
+        <v>0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.04723575957394214</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.04723575957394214</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -8218,6 +12409,15 @@
       <c r="D466" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E466" t="n">
+        <v>0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -8234,6 +12434,15 @@
       <c r="D467" t="n">
         <v>4.422848629194137</v>
       </c>
+      <c r="E467" t="n">
+        <v>0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.01387200388908974</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.01387200388908974</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -8250,6 +12459,15 @@
       <c r="D468" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E468" t="n">
+        <v>0.007243321481388251</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.02456105802350405</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -8268,6 +12486,15 @@
       <c r="D469" t="n">
         <v>24.15982017369776</v>
       </c>
+      <c r="E469" t="n">
+        <v>0.106145181083037</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.07577585115552755</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.1819210322385646</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -8284,6 +12511,15 @@
       <c r="D470" t="n">
         <v>2.631089159966082</v>
       </c>
+      <c r="E470" t="n">
+        <v>0.08592555300336679</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.008252255982416818</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.09417780898578361</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -8300,6 +12536,15 @@
       <c r="D471" t="n">
         <v>21.39269649088904</v>
       </c>
+      <c r="E471" t="n">
+        <v>0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.06709693091481633</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.06709693091481633</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -8316,6 +12561,15 @@
       <c r="D472" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -8332,6 +12586,15 @@
       <c r="D473" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E473" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -8348,6 +12611,15 @@
       <c r="D474" t="n">
         <v>3.079113882493042</v>
       </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.009657459102478094</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.009657459102478094</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -8364,6 +12636,15 @@
       <c r="D475" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E475" t="n">
+        <v>0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -8380,6 +12661,15 @@
       <c r="D476" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.0160460191427366</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.0160460191427366</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -8396,6 +12686,15 @@
       <c r="D477" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.01226982944595948</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.01226982944595948</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -8412,6 +12711,15 @@
       <c r="D478" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -8428,6 +12736,15 @@
       <c r="D479" t="n">
         <v>0</v>
       </c>
+      <c r="E479" t="n">
+        <v>0.08105471822787201</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.08105471822787201</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -8444,6 +12761,15 @@
       <c r="D480" t="n">
         <v>11.59456945401074</v>
       </c>
+      <c r="E480" t="n">
+        <v>0.09498757119033385</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.03636568330570784</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.1313532544960417</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -8460,6 +12786,15 @@
       <c r="D481" t="n">
         <v>41.01895132053432</v>
       </c>
+      <c r="E481" t="n">
+        <v>0.007803404549888298</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.1286535217345912</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.1364569262844794</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -8476,6 +12811,15 @@
       <c r="D482" t="n">
         <v>0</v>
       </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -8492,6 +12836,15 @@
       <c r="D483" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E483" t="n">
+        <v>0.2199364400113275</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.229090993848012</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -8508,6 +12861,15 @@
       <c r="D484" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -8524,6 +12886,15 @@
       <c r="D485" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E485" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -8540,6 +12911,15 @@
       <c r="D486" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E486" t="n">
+        <v>0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -8556,6 +12936,15 @@
       <c r="D487" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E487" t="n">
+        <v>0.1170510682483245</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.009154553836684471</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.126205622085009</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -8572,6 +12961,15 @@
       <c r="D488" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -8588,6 +12986,15 @@
       <c r="D489" t="n">
         <v>7.844248718173811</v>
       </c>
+      <c r="E489" t="n">
+        <v>0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.02460302349197082</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.02460302349197082</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -8604,6 +13011,15 @@
       <c r="D490" t="n">
         <v>13.67401099569058</v>
       </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.04288772906664843</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.04288772906664843</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -8620,6 +13036,15 @@
       <c r="D491" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.03463547308423159</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0.03463547308423159</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -8636,6 +13061,15 @@
       <c r="D492" t="n">
         <v>15.75345253737041</v>
       </c>
+      <c r="E492" t="n">
+        <v>0.162109436455744</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.04940977482758898</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0.211519211283333</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -8652,6 +13086,15 @@
       <c r="D493" t="n">
         <v>47.99432678719143</v>
       </c>
+      <c r="E493" t="n">
+        <v>0.0423523488877002</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.1505313755147598</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.19288372440246</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -8668,6 +13111,15 @@
       <c r="D494" t="n">
         <v>68.09011247809525</v>
       </c>
+      <c r="E494" t="n">
+        <v>0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.2135606221904084</v>
+      </c>
+      <c r="G494" t="n">
+        <v>0.2135606221904084</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -8684,6 +13136,15 @@
       <c r="D495" t="n">
         <v>10.63745672761633</v>
       </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.03336375568485239</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0.03336375568485239</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -8700,6 +13161,15 @@
       <c r="D496" t="n">
         <v>80.7300497062553</v>
       </c>
+      <c r="E496" t="n">
+        <v>0.1044649318775369</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.2532050398694359</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0.3576699717469728</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -8716,6 +13186,15 @@
       <c r="D497" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.0173177365421158</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.0173177365421158</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -8733,6 +13212,15 @@
       <c r="D498" t="n">
         <v>38.78090474867784</v>
       </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.121634020650193</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0.121634020650193</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -8748,6 +13236,15 @@
       </c>
       <c r="D499" t="n">
         <v>43.76622223478979</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.1372701749375471</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0.1372701749375471</v>
       </c>
     </row>
   </sheetData>
